--- a/Excel/BestBuy.xlsx
+++ b/Excel/BestBuy.xlsx
@@ -5,18 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-newworkspace\BestBuy\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUVI\ProjectResource\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="loginTestData" sheetId="2" r:id="rId1"/>
     <sheet name="signInTestData" sheetId="3" r:id="rId2"/>
-    <sheet name="menuTitleTestData" sheetId="4" r:id="rId3"/>
-    <sheet name="moreMenuTitleTestData" sheetId="5" r:id="rId4"/>
-    <sheet name="menuGenricTestData" sheetId="6" r:id="rId5"/>
+    <sheet name="menuGenricTestData" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="53">
   <si>
     <t>t</t>
   </si>
@@ -111,9 +109,6 @@
     <t>//strong//div</t>
   </si>
   <si>
-    <t xml:space="preserve">We didn't find an account with that email address. Would you like to </t>
-  </si>
-  <si>
     <t>//div[text()='The password was incorrect. Please try again.']</t>
   </si>
   <si>
@@ -184,6 +179,12 @@
   </si>
   <si>
     <t>Best Buy for Business - Best Buy</t>
+  </si>
+  <si>
+    <t>We didn't find an account with that email address. Would you like to create an account?</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -225,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -235,13 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +530,7 @@
     <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" customWidth="1"/>
-    <col min="7" max="7" width="54" style="2" customWidth="1"/>
+    <col min="7" max="7" width="59.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -566,7 +561,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2"/>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -592,7 +587,7 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -618,7 +613,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
@@ -644,7 +639,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -668,7 +663,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
@@ -692,14 +687,16 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7"/>
-      <c r="E7"/>
+      <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F7">
         <v>9876543210</v>
       </c>
@@ -813,9 +810,6 @@
       <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -841,7 +835,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +843,7 @@
     <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="87.85546875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -864,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,10 +869,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -922,120 +916,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" style="5" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" style="5" customWidth="1"/>
-    <col min="2" max="2" width="64" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1051,75 +931,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BestBuy.xlsx
+++ b/Excel/BestBuy.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUVI\ProjectResource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginTestData" sheetId="2" r:id="rId1"/>
     <sheet name="signInTestData" sheetId="3" r:id="rId2"/>
     <sheet name="menuGenricTestData" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:D24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -834,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
